--- a/src/test/resources/io.dingodb.test/testdata/txnbtreecases/index/index_cases2_txnbtree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/txnbtreecases/index/index_cases2_txnbtree.xlsx
@@ -3095,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="M120" sqref="M120"/>
+    <sheetView tabSelected="1" topLeftCell="G65" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6512,7 +6512,7 @@
         <v>694</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>284</v>
@@ -7045,7 +7045,7 @@
         <v>720</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>304</v>
@@ -7168,7 +7168,7 @@
         <v>726</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>312</v>
